--- a/data/cell_death_data.xlsx
+++ b/data/cell_death_data.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizbethgomez/Desktop/CUMC-MPH/Spring 2020/COMP TOX/Session 2/Session_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizbethgomez/Desktop/CUMC-MPH/Spring 2020/COMP TOX/Session 2/comp_toxhw1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F591D0-EFC2-7945-9E3A-F63464D11BAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1D92ED-2C91-464B-B285-4910D74D4698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{0940CDAF-0811-3646-88FB-635CBE2C4ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -416,11 +416,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2646EE36-9D38-1D45-9C87-F7FF41AF7486}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1009,7 +1012,7 @@
         <v>38.021454112038136</v>
       </c>
       <c r="T9">
-        <f t="shared" si="5"/>
+        <f>M9/L9*100</f>
         <v>44</v>
       </c>
       <c r="U9">
